--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm2-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm2-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Adm2</t>
+  </si>
+  <si>
+    <t>Ramp3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Adm2</t>
-  </si>
-  <si>
-    <t>Ramp3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H2">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.240458</v>
+        <v>0.2287846666666667</v>
       </c>
       <c r="N2">
-        <v>3.721374</v>
+        <v>0.686354</v>
       </c>
       <c r="O2">
-        <v>0.7314599148753498</v>
+        <v>0.2689534993532379</v>
       </c>
       <c r="P2">
-        <v>0.7314599148753498</v>
+        <v>0.268953499353238</v>
       </c>
       <c r="Q2">
-        <v>0.03886809748600001</v>
+        <v>0.016556231188</v>
       </c>
       <c r="R2">
-        <v>0.349812877374</v>
+        <v>0.149006080692</v>
       </c>
       <c r="S2">
-        <v>0.7314599148753498</v>
+        <v>0.2689534993532379</v>
       </c>
       <c r="T2">
-        <v>0.7314599148753498</v>
+        <v>0.268953499353238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H3">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,146 @@
         <v>1.366224</v>
       </c>
       <c r="O3">
-        <v>0.2685400851246502</v>
+        <v>0.5353661896053321</v>
       </c>
       <c r="P3">
-        <v>0.2685400851246502</v>
+        <v>0.5353661896053322</v>
       </c>
       <c r="Q3">
-        <v>0.01426960246933334</v>
+        <v>0.032956055328</v>
       </c>
       <c r="R3">
-        <v>0.128426422224</v>
+        <v>0.2966044979520001</v>
       </c>
       <c r="S3">
-        <v>0.2685400851246502</v>
+        <v>0.5353661896053321</v>
       </c>
       <c r="T3">
-        <v>0.2685400851246502</v>
+        <v>0.5353661896053322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.072366</v>
+      </c>
+      <c r="H4">
+        <v>0.217098</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.04315</v>
+      </c>
+      <c r="N4">
+        <v>0.12945</v>
+      </c>
+      <c r="O4">
+        <v>0.05072605461799107</v>
+      </c>
+      <c r="P4">
+        <v>0.05072605461799109</v>
+      </c>
+      <c r="Q4">
+        <v>0.0031225929</v>
+      </c>
+      <c r="R4">
+        <v>0.0281033361</v>
+      </c>
+      <c r="S4">
+        <v>0.05072605461799107</v>
+      </c>
+      <c r="T4">
+        <v>0.05072605461799109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.072366</v>
+      </c>
+      <c r="H5">
+        <v>0.217098</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.123305</v>
+      </c>
+      <c r="N5">
+        <v>0.369915</v>
+      </c>
+      <c r="O5">
+        <v>0.1449542564234389</v>
+      </c>
+      <c r="P5">
+        <v>0.144954256423439</v>
+      </c>
+      <c r="Q5">
+        <v>0.00892308963</v>
+      </c>
+      <c r="R5">
+        <v>0.08030780667000001</v>
+      </c>
+      <c r="S5">
+        <v>0.1449542564234389</v>
+      </c>
+      <c r="T5">
+        <v>0.144954256423439</v>
       </c>
     </row>
   </sheetData>
